--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51457470708584</v>
+        <v>1.654587</v>
       </c>
       <c r="H2">
-        <v>1.51457470708584</v>
+        <v>4.963761</v>
       </c>
       <c r="I2">
-        <v>0.04941000534397749</v>
+        <v>0.05277312046682094</v>
       </c>
       <c r="J2">
-        <v>0.04941000534397749</v>
+        <v>0.07150718413853953</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.350224593834405</v>
+        <v>0.654529</v>
       </c>
       <c r="N2">
-        <v>0.350224593834405</v>
+        <v>1.963587</v>
       </c>
       <c r="O2">
-        <v>0.0009700237041068996</v>
+        <v>0.001636504842097015</v>
       </c>
       <c r="P2">
-        <v>0.0009700237041068996</v>
+        <v>0.001641975240588762</v>
       </c>
       <c r="Q2">
-        <v>0.5304413116210013</v>
+        <v>1.082975174523</v>
       </c>
       <c r="R2">
-        <v>0.5304413116210013</v>
+        <v>9.746776570707</v>
       </c>
       <c r="S2">
-        <v>4.792887640370675E-05</v>
+        <v>8.636346717652153E-05</v>
       </c>
       <c r="T2">
-        <v>4.792887640370675E-05</v>
+        <v>0.0001174130258797034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51457470708584</v>
+        <v>1.654587</v>
       </c>
       <c r="H3">
-        <v>1.51457470708584</v>
+        <v>4.963761</v>
       </c>
       <c r="I3">
-        <v>0.04941000534397749</v>
+        <v>0.05277312046682094</v>
       </c>
       <c r="J3">
-        <v>0.04941000534397749</v>
+        <v>0.07150718413853953</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.49795959717784</v>
+        <v>2.625878666666667</v>
       </c>
       <c r="N3">
-        <v>2.49795959717784</v>
+        <v>7.877636000000001</v>
       </c>
       <c r="O3">
-        <v>0.006918646102590728</v>
+        <v>0.006565428197618827</v>
       </c>
       <c r="P3">
-        <v>0.006918646102590728</v>
+        <v>0.006587374670116828</v>
       </c>
       <c r="Q3">
-        <v>3.78334642520789</v>
+        <v>4.344744705444</v>
       </c>
       <c r="R3">
-        <v>3.78334642520789</v>
+        <v>39.102702348996</v>
       </c>
       <c r="S3">
-        <v>0.0003418503409020969</v>
+        <v>0.0003464781331892014</v>
       </c>
       <c r="T3">
-        <v>0.0003418503409020969</v>
+        <v>0.0004710446135255951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51457470708584</v>
+        <v>1.654587</v>
       </c>
       <c r="H4">
-        <v>1.51457470708584</v>
+        <v>4.963761</v>
       </c>
       <c r="I4">
-        <v>0.04941000534397749</v>
+        <v>0.05277312046682094</v>
       </c>
       <c r="J4">
-        <v>0.04941000534397749</v>
+        <v>0.07150718413853953</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>162.14486510976</v>
+        <v>196.492958</v>
       </c>
       <c r="N4">
-        <v>162.14486510976</v>
+        <v>589.4788739999999</v>
       </c>
       <c r="O4">
-        <v>0.4490957100804033</v>
+        <v>0.491287135031397</v>
       </c>
       <c r="P4">
-        <v>0.4490957100804033</v>
+        <v>0.4929293766755139</v>
       </c>
       <c r="Q4">
-        <v>245.5805115790878</v>
+        <v>325.1146938983459</v>
       </c>
       <c r="R4">
-        <v>245.5805115790878</v>
+        <v>2926.032245085114</v>
       </c>
       <c r="S4">
-        <v>0.02218982143503009</v>
+        <v>0.02592675516081124</v>
       </c>
       <c r="T4">
-        <v>0.02218982143503009</v>
+        <v>0.03524799170523148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.51457470708584</v>
+        <v>1.654587</v>
       </c>
       <c r="H5">
-        <v>1.51457470708584</v>
+        <v>4.963761</v>
       </c>
       <c r="I5">
-        <v>0.04941000534397749</v>
+        <v>0.05277312046682094</v>
       </c>
       <c r="J5">
-        <v>0.04941000534397749</v>
+        <v>0.07150718413853953</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>192.81316292797</v>
+        <v>196.1845956666667</v>
       </c>
       <c r="N5">
-        <v>192.81316292797</v>
+        <v>588.5537870000001</v>
       </c>
       <c r="O5">
-        <v>0.5340382765705788</v>
+        <v>0.4905161432928793</v>
       </c>
       <c r="P5">
-        <v>0.5340382765705788</v>
+        <v>0.4921558077175863</v>
       </c>
       <c r="Q5">
-        <v>292.0299397639245</v>
+        <v>324.6044815903231</v>
       </c>
       <c r="R5">
-        <v>292.0299397639245</v>
+        <v>2921.440334312907</v>
       </c>
       <c r="S5">
-        <v>0.02638683409924083</v>
+        <v>0.02588606752091552</v>
       </c>
       <c r="T5">
-        <v>0.02638683409924083</v>
+        <v>0.0351926759673131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.51457470708584</v>
+        <v>1.654587</v>
       </c>
       <c r="H6">
-        <v>1.51457470708584</v>
+        <v>4.963761</v>
       </c>
       <c r="I6">
-        <v>0.04941000534397749</v>
+        <v>0.05277312046682094</v>
       </c>
       <c r="J6">
-        <v>0.04941000534397749</v>
+        <v>0.07150718413853953</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.24124707727196</v>
+        <v>3.99747</v>
       </c>
       <c r="N6">
-        <v>3.24124707727196</v>
+        <v>7.99494</v>
       </c>
       <c r="O6">
-        <v>0.008977343542320194</v>
+        <v>0.009994788636007805</v>
       </c>
       <c r="P6">
-        <v>0.008977343542320194</v>
+        <v>0.006685465696194116</v>
       </c>
       <c r="Q6">
-        <v>4.909110842652014</v>
+        <v>6.61416189489</v>
       </c>
       <c r="R6">
-        <v>4.909110842652014</v>
+        <v>39.68497136934</v>
       </c>
       <c r="S6">
-        <v>0.0004435705924007626</v>
+        <v>0.0005274561847284527</v>
       </c>
       <c r="T6">
-        <v>0.0004435705924007626</v>
+        <v>0.000478058826589642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.58659150398402</v>
+        <v>5.055996666666666</v>
       </c>
       <c r="H7">
-        <v>4.58659150398402</v>
+        <v>15.16799</v>
       </c>
       <c r="I7">
-        <v>0.1496284796400262</v>
+        <v>0.1612612217851615</v>
       </c>
       <c r="J7">
-        <v>0.1496284796400262</v>
+        <v>0.2185077512679451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.350224593834405</v>
+        <v>0.654529</v>
       </c>
       <c r="N7">
-        <v>0.350224593834405</v>
+        <v>1.963587</v>
       </c>
       <c r="O7">
-        <v>0.0009700237041068996</v>
+        <v>0.001636504842097015</v>
       </c>
       <c r="P7">
-        <v>0.0009700237041068996</v>
+        <v>0.001641975240588762</v>
       </c>
       <c r="Q7">
-        <v>1.606337146567136</v>
+        <v>3.309296442236667</v>
       </c>
       <c r="R7">
-        <v>1.606337146567136</v>
+        <v>29.78366798013</v>
       </c>
       <c r="S7">
-        <v>0.000145143172060302</v>
+        <v>0.0002639047702938974</v>
       </c>
       <c r="T7">
-        <v>0.000145143172060302</v>
+        <v>0.0003587843174586935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.58659150398402</v>
+        <v>5.055996666666666</v>
       </c>
       <c r="H8">
-        <v>4.58659150398402</v>
+        <v>15.16799</v>
       </c>
       <c r="I8">
-        <v>0.1496284796400262</v>
+        <v>0.1612612217851615</v>
       </c>
       <c r="J8">
-        <v>0.1496284796400262</v>
+        <v>0.2185077512679451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.49795959717784</v>
+        <v>2.625878666666667</v>
       </c>
       <c r="N8">
-        <v>2.49795959717784</v>
+        <v>7.877636000000001</v>
       </c>
       <c r="O8">
-        <v>0.006918646102590728</v>
+        <v>0.006565428197618827</v>
       </c>
       <c r="P8">
-        <v>0.006918646102590728</v>
+        <v>0.006587374670116828</v>
       </c>
       <c r="Q8">
-        <v>11.45712026571123</v>
+        <v>13.27643378573778</v>
       </c>
       <c r="R8">
-        <v>11.45712026571123</v>
+        <v>119.48790407164</v>
       </c>
       <c r="S8">
-        <v>0.001035226497498043</v>
+        <v>0.001058748972690763</v>
       </c>
       <c r="T8">
-        <v>0.001035226497498043</v>
+        <v>0.001439392425926649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.58659150398402</v>
+        <v>5.055996666666666</v>
       </c>
       <c r="H9">
-        <v>4.58659150398402</v>
+        <v>15.16799</v>
       </c>
       <c r="I9">
-        <v>0.1496284796400262</v>
+        <v>0.1612612217851615</v>
       </c>
       <c r="J9">
-        <v>0.1496284796400262</v>
+        <v>0.2185077512679451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>162.14486510976</v>
+        <v>196.492958</v>
       </c>
       <c r="N9">
-        <v>162.14486510976</v>
+        <v>589.4788739999999</v>
       </c>
       <c r="O9">
-        <v>0.4490957100804033</v>
+        <v>0.491287135031397</v>
       </c>
       <c r="P9">
-        <v>0.4490957100804033</v>
+        <v>0.4929293766755139</v>
       </c>
       <c r="Q9">
-        <v>743.6922607270601</v>
+        <v>993.4677406714731</v>
       </c>
       <c r="R9">
-        <v>743.6922607270601</v>
+        <v>8941.209666043258</v>
       </c>
       <c r="S9">
-        <v>0.06719750831218874</v>
+        <v>0.07922556364249472</v>
       </c>
       <c r="T9">
-        <v>0.06719750831218874</v>
+        <v>0.1077088896312764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.58659150398402</v>
+        <v>5.055996666666666</v>
       </c>
       <c r="H10">
-        <v>4.58659150398402</v>
+        <v>15.16799</v>
       </c>
       <c r="I10">
-        <v>0.1496284796400262</v>
+        <v>0.1612612217851615</v>
       </c>
       <c r="J10">
-        <v>0.1496284796400262</v>
+        <v>0.2185077512679451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.81316292797</v>
+        <v>196.1845956666667</v>
       </c>
       <c r="N10">
-        <v>192.81316292797</v>
+        <v>588.5537870000001</v>
       </c>
       <c r="O10">
-        <v>0.5340382765705788</v>
+        <v>0.4905161432928793</v>
       </c>
       <c r="P10">
-        <v>0.5340382765705788</v>
+        <v>0.4921558077175863</v>
       </c>
       <c r="Q10">
-        <v>884.3552149417139</v>
+        <v>991.9086617420145</v>
       </c>
       <c r="R10">
-        <v>884.3552149417139</v>
+        <v>8927.177955678131</v>
       </c>
       <c r="S10">
-        <v>0.07990733539283552</v>
+        <v>0.07910123257275509</v>
       </c>
       <c r="T10">
-        <v>0.07990733539283552</v>
+        <v>0.1075398588178289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.58659150398402</v>
+        <v>5.055996666666666</v>
       </c>
       <c r="H11">
-        <v>4.58659150398402</v>
+        <v>15.16799</v>
       </c>
       <c r="I11">
-        <v>0.1496284796400262</v>
+        <v>0.1612612217851615</v>
       </c>
       <c r="J11">
-        <v>0.1496284796400262</v>
+        <v>0.2185077512679451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.24124707727196</v>
+        <v>3.99747</v>
       </c>
       <c r="N11">
-        <v>3.24124707727196</v>
+        <v>7.99494</v>
       </c>
       <c r="O11">
-        <v>0.008977343542320194</v>
+        <v>0.009994788636007805</v>
       </c>
       <c r="P11">
-        <v>0.008977343542320194</v>
+        <v>0.006685465696194116</v>
       </c>
       <c r="Q11">
-        <v>14.86627630692861</v>
+        <v>20.2111949951</v>
       </c>
       <c r="R11">
-        <v>14.86627630692861</v>
+        <v>121.2671699706</v>
       </c>
       <c r="S11">
-        <v>0.001343266265443578</v>
+        <v>0.001611771826927067</v>
       </c>
       <c r="T11">
-        <v>0.001343266265443578</v>
+        <v>0.001460826075454363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.5520323980343</v>
+        <v>24.6422525</v>
       </c>
       <c r="H12">
-        <v>24.5520323980343</v>
+        <v>49.284505</v>
       </c>
       <c r="I12">
-        <v>0.8009615150159963</v>
+        <v>0.7859656577480176</v>
       </c>
       <c r="J12">
-        <v>0.8009615150159963</v>
+        <v>0.7099850645935153</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.350224593834405</v>
+        <v>0.654529</v>
       </c>
       <c r="N12">
-        <v>0.350224593834405</v>
+        <v>1.963587</v>
       </c>
       <c r="O12">
-        <v>0.0009700237041068996</v>
+        <v>0.001636504842097015</v>
       </c>
       <c r="P12">
-        <v>0.0009700237041068996</v>
+        <v>0.001641975240588762</v>
       </c>
       <c r="Q12">
-        <v>8.598725574410716</v>
+        <v>16.1290688865725</v>
       </c>
       <c r="R12">
-        <v>8.598725574410716</v>
+        <v>96.77441331943498</v>
       </c>
       <c r="S12">
-        <v>0.0007769516556428909</v>
+        <v>0.001286236604626596</v>
       </c>
       <c r="T12">
-        <v>0.0007769516556428909</v>
+        <v>0.001165777897250365</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.5520323980343</v>
+        <v>24.6422525</v>
       </c>
       <c r="H13">
-        <v>24.5520323980343</v>
+        <v>49.284505</v>
       </c>
       <c r="I13">
-        <v>0.8009615150159963</v>
+        <v>0.7859656577480176</v>
       </c>
       <c r="J13">
-        <v>0.8009615150159963</v>
+        <v>0.7099850645935153</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.49795959717784</v>
+        <v>2.625878666666667</v>
       </c>
       <c r="N13">
-        <v>2.49795959717784</v>
+        <v>7.877636000000001</v>
       </c>
       <c r="O13">
-        <v>0.006918646102590728</v>
+        <v>0.006565428197618827</v>
       </c>
       <c r="P13">
-        <v>0.006918646102590728</v>
+        <v>0.006587374670116828</v>
       </c>
       <c r="Q13">
-        <v>61.32998495889103</v>
+        <v>64.70756513836334</v>
       </c>
       <c r="R13">
-        <v>61.32998495889103</v>
+        <v>388.24539083018</v>
       </c>
       <c r="S13">
-        <v>0.005541569264190588</v>
+        <v>0.005160201091738863</v>
       </c>
       <c r="T13">
-        <v>0.005541569264190588</v>
+        <v>0.004676937630664583</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.5520323980343</v>
+        <v>24.6422525</v>
       </c>
       <c r="H14">
-        <v>24.5520323980343</v>
+        <v>49.284505</v>
       </c>
       <c r="I14">
-        <v>0.8009615150159963</v>
+        <v>0.7859656577480176</v>
       </c>
       <c r="J14">
-        <v>0.8009615150159963</v>
+        <v>0.7099850645935153</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>162.14486510976</v>
+        <v>196.492958</v>
       </c>
       <c r="N14">
-        <v>162.14486510976</v>
+        <v>589.4788739999999</v>
       </c>
       <c r="O14">
-        <v>0.4490957100804033</v>
+        <v>0.491287135031397</v>
       </c>
       <c r="P14">
-        <v>0.4490957100804033</v>
+        <v>0.4929293766755139</v>
       </c>
       <c r="Q14">
-        <v>3980.985981349729</v>
+        <v>4842.029085507894</v>
       </c>
       <c r="R14">
-        <v>3980.985981349729</v>
+        <v>29052.17451304736</v>
       </c>
       <c r="S14">
-        <v>0.3597083803331845</v>
+        <v>0.3861348162280911</v>
       </c>
       <c r="T14">
-        <v>0.3597083803331845</v>
+        <v>0.349972495339006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.5520323980343</v>
+        <v>24.6422525</v>
       </c>
       <c r="H15">
-        <v>24.5520323980343</v>
+        <v>49.284505</v>
       </c>
       <c r="I15">
-        <v>0.8009615150159963</v>
+        <v>0.7859656577480176</v>
       </c>
       <c r="J15">
-        <v>0.8009615150159963</v>
+        <v>0.7099850645935153</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>192.81316292797</v>
+        <v>196.1845956666667</v>
       </c>
       <c r="N15">
-        <v>192.81316292797</v>
+        <v>588.5537870000001</v>
       </c>
       <c r="O15">
-        <v>0.5340382765705788</v>
+        <v>0.4905161432928793</v>
       </c>
       <c r="P15">
-        <v>0.5340382765705788</v>
+        <v>0.4921558077175863</v>
       </c>
       <c r="Q15">
-        <v>4733.955022974986</v>
+        <v>4834.430343028406</v>
       </c>
       <c r="R15">
-        <v>4733.955022974986</v>
+        <v>29006.58205817044</v>
       </c>
       <c r="S15">
-        <v>0.4277441070785025</v>
+        <v>0.3855288431992088</v>
       </c>
       <c r="T15">
-        <v>0.4277441070785025</v>
+        <v>0.3494232729324442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.5520323980343</v>
+        <v>24.6422525</v>
       </c>
       <c r="H16">
-        <v>24.5520323980343</v>
+        <v>49.284505</v>
       </c>
       <c r="I16">
-        <v>0.8009615150159963</v>
+        <v>0.7859656577480176</v>
       </c>
       <c r="J16">
-        <v>0.8009615150159963</v>
+        <v>0.7099850645935153</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.24124707727196</v>
+        <v>3.99747</v>
       </c>
       <c r="N16">
-        <v>3.24124707727196</v>
+        <v>7.99494</v>
       </c>
       <c r="O16">
-        <v>0.008977343542320194</v>
+        <v>0.009994788636007805</v>
       </c>
       <c r="P16">
-        <v>0.008977343542320194</v>
+        <v>0.006685465696194116</v>
       </c>
       <c r="Q16">
-        <v>79.57920325121515</v>
+        <v>98.50666510117499</v>
       </c>
       <c r="R16">
-        <v>79.57920325121515</v>
+        <v>394.0266604047</v>
       </c>
       <c r="S16">
-        <v>0.007190506684475854</v>
+        <v>0.007855560624352286</v>
       </c>
       <c r="T16">
-        <v>0.007190506684475854</v>
+        <v>0.00474658079415011</v>
       </c>
     </row>
   </sheetData>
